--- a/StockingProblemProject/Testes/Problema5/testes_tamanho_populacao/statistic_average_fitness_avaliado.xlsx
+++ b/StockingProblemProject/Testes/Problema5/testes_tamanho_populacao/statistic_average_fitness_avaliado.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\AppData\Local\GitHubDesktop\app-2.8.3\IAProject_StockingProblem\StockingProblemProject\Testes\Problema5\testes_tamanho_populacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruna Leitão\Desktop\Escola\IA\IAProject_StockingProblem\StockingProblemProject\Testes\Problema5\testes_tamanho_populacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F329ED3B-9231-4235-828D-25B0F8C732FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{142D9566-B556-4D25-BF98-7F5BBA060EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14020" yWindow="3994" windowWidth="14129" windowHeight="10651"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_average_fitness_avali" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="23">
   <si>
     <t>Population size:</t>
   </si>
@@ -57,12 +68,45 @@
   <si>
     <t>EM</t>
   </si>
+  <si>
+    <t>pop 400</t>
+  </si>
+  <si>
+    <t>ger 200</t>
+  </si>
+  <si>
+    <t>ger 175</t>
+  </si>
+  <si>
+    <t>ger 150</t>
+  </si>
+  <si>
+    <t>ger 125</t>
+  </si>
+  <si>
+    <t>pop 150</t>
+  </si>
+  <si>
+    <t>ger 75</t>
+  </si>
+  <si>
+    <t>pop 200</t>
+  </si>
+  <si>
+    <t>pop 100</t>
+  </si>
+  <si>
+    <t>pop 50</t>
+  </si>
+  <si>
+    <t>Average/(Population*generations)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +241,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +434,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -545,9 +607,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Cor1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -604,6 +679,2281 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-188C-4C28-9D5A-58014DE3F47A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-188C-4C28-9D5A-58014DE3F47A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>statistic_average_fitness_avali!$L$2:$M$26</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="25"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>ger 200</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>ger 175</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>ger 150</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ger 125</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>ger 75</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>ger 200</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>ger 175</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ger 150</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ger 125</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ger 75</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>ger 200</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>ger 175</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>ger 150</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>ger 125</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>ger 75</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>ger 200</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>ger 175</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>ger 150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>ger 125</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>ger 75</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>ger 200</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>ger 175</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>ger 150</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>ger 125</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>ger 75</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>pop 50</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>pop 100</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>pop 150</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>pop 200</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>pop 400</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness_avali!$N$2:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1064.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1064.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1065.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1067.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1070.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1058.92</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1059.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1060.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1061.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1064.96</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1051.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1051.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1052.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1053.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1056.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1055.28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1055.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1056.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1056.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1059.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048.48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1049.08</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1049.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1050.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1052.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-188C-4C28-9D5A-58014DE3F47A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="598714384"/>
+        <c:axId val="598715984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="598714384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598715984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="598715984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="598714384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22064566929133861"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statistic_average_fitness_avali!$O$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average/(Population*generations)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1689-4B94-BCDB-4C9F429B5C69}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>statistic_average_fitness_avali!$L$29:$M$53</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="25"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>175</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>175</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>75</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>175</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>75</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>75</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>175</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>175</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>75</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>125</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>75</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>400</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>150</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>200</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>50</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>statistic_average_fitness_avali!$O$29:$O$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.3106E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4986856999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7499000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1007600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5041333000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0067810000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5075333E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6775111000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6190932999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6381999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0159999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5209333000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3905777999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.2276000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2946E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.0609332999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0548571000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.0682667000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4905599999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10641399999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.121675429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.14199466699999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.142072</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1707552</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28557333299999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1689-4B94-BCDB-4C9F429B5C69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="614931896"/>
+        <c:axId val="614932216"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="614931896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614932216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="614932216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="614931896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F887AA-C082-4695-BBDA-B7F5C2040649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948CAF3E-6BB0-4011-A995-F3C1CC1FACBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -902,19 +3252,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="AA50" sqref="AA50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,8 +3293,17 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>400</v>
       </c>
@@ -971,8 +3331,17 @@
       <c r="J2">
         <v>9.0713615295610293</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>1064.1400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>400</v>
       </c>
@@ -1000,8 +3369,15 @@
       <c r="J3">
         <v>8.8630468801648608</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" s="5"/>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>1064.6600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>400</v>
       </c>
@@ -1029,8 +3405,15 @@
       <c r="J4">
         <v>9.1047460151285904</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="5"/>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>1065.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>400</v>
       </c>
@@ -1058,8 +3441,15 @@
       <c r="J5">
         <v>9.0108601143287093</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="5"/>
+      <c r="M5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>1067.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>150</v>
       </c>
@@ -1088,8 +3478,17 @@
       <c r="J6" s="1">
         <v>9.1138575806296203</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="5"/>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>150</v>
       </c>
@@ -1117,8 +3516,19 @@
       <c r="J7">
         <v>8.9672515298724598</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7">
+        <v>1058.92</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>400</v>
       </c>
@@ -1146,8 +3556,17 @@
       <c r="J8">
         <v>8.4565004582273797</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="5"/>
+      <c r="M8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>1059.5999999999999</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>150</v>
       </c>
@@ -1175,8 +3594,17 @@
       <c r="J9">
         <v>8.8003636288507998</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="5"/>
+      <c r="M9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>1060.24</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>150</v>
       </c>
@@ -1204,8 +3632,17 @@
       <c r="J10">
         <v>8.6766122421138601</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="5"/>
+      <c r="M10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>1061.32</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>200</v>
       </c>
@@ -1233,8 +3670,18 @@
       <c r="J11">
         <v>9.6995670006449206</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="5"/>
+      <c r="M11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>1064.96</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="7"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>200</v>
       </c>
@@ -1262,8 +3709,19 @@
       <c r="J12">
         <v>9.8488578017960897</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1051.24</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>200</v>
       </c>
@@ -1291,8 +3749,17 @@
       <c r="J13">
         <v>9.8590871788416496</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="8"/>
+      <c r="M13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13">
+        <v>1051.78</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>150</v>
       </c>
@@ -1320,8 +3787,17 @@
       <c r="J14">
         <v>7.7437975180140102</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>1052.44</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>200</v>
       </c>
@@ -1349,8 +3825,17 @@
       <c r="J15">
         <v>9.7882582720318396</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15" s="8"/>
+      <c r="M15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>1053.58</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>100</v>
       </c>
@@ -1378,8 +3863,17 @@
       <c r="J16">
         <v>7.7222794562227497</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" s="8"/>
+      <c r="M16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16">
+        <v>1056.44</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>200</v>
       </c>
@@ -1407,8 +3901,21 @@
       <c r="J17">
         <v>8.5510467195542805</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>1055.28</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>100</v>
       </c>
@@ -1436,8 +3943,19 @@
       <c r="J18">
         <v>7.6602872008822196</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18" s="5"/>
+      <c r="M18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18">
+        <v>1055.5999999999999</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>100</v>
       </c>
@@ -1465,8 +3983,19 @@
       <c r="J19">
         <v>7.8906526979711904</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" s="5"/>
+      <c r="M19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>1056.28</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>100</v>
       </c>
@@ -1494,8 +4023,19 @@
       <c r="J20">
         <v>8.0930587542659005</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20" s="5"/>
+      <c r="M20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>1056.9000000000001</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>50</v>
       </c>
@@ -1523,8 +4063,19 @@
       <c r="J21">
         <v>9.1170389930064406</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21" s="5"/>
+      <c r="M21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21">
+        <v>1059.1400000000001</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>50</v>
       </c>
@@ -1552,8 +4103,19 @@
       <c r="J22">
         <v>9.0478947827657699</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="10">
+        <v>1048.48</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1581,8 +4143,17 @@
       <c r="J23">
         <v>7.3728149305404402</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L23" s="5"/>
+      <c r="M23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23">
+        <v>1049.08</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>50</v>
       </c>
@@ -1610,8 +4181,17 @@
       <c r="J24">
         <v>9.0315225737413698</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24" s="5"/>
+      <c r="M24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>1049.94</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1639,8 +4219,17 @@
       <c r="J25">
         <v>8.6586142078279504</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25" s="5"/>
+      <c r="M25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25">
+        <v>1050.3800000000001</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1668,11 +4257,389 @@
       <c r="J26">
         <v>8.9425947017630101</v>
       </c>
+      <c r="L26" s="5"/>
+      <c r="M26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>1052.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="2" customFormat="1" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>7</v>
+      </c>
+      <c r="O28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>400</v>
+      </c>
+      <c r="M29">
+        <v>200</v>
+      </c>
+      <c r="N29">
+        <v>1048.48</v>
+      </c>
+      <c r="O29">
+        <v>1.3106E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <v>400</v>
+      </c>
+      <c r="M30">
+        <v>175</v>
+      </c>
+      <c r="N30">
+        <v>1049.08</v>
+      </c>
+      <c r="O30">
+        <v>1.4986856999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <v>400</v>
+      </c>
+      <c r="M31">
+        <v>150</v>
+      </c>
+      <c r="N31">
+        <v>1049.94</v>
+      </c>
+      <c r="O31">
+        <v>1.7499000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <v>400</v>
+      </c>
+      <c r="M32">
+        <v>125</v>
+      </c>
+      <c r="N32">
+        <v>1050.3800000000001</v>
+      </c>
+      <c r="O32">
+        <v>2.1007600000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L33" s="1">
+        <v>150</v>
+      </c>
+      <c r="M33" s="1">
+        <v>200</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1051.24</v>
+      </c>
+      <c r="O33" s="1">
+        <v>3.5041333000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>150</v>
+      </c>
+      <c r="M34">
+        <v>175</v>
+      </c>
+      <c r="N34">
+        <v>1051.78</v>
+      </c>
+      <c r="O34">
+        <v>4.0067810000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <v>400</v>
+      </c>
+      <c r="M35">
+        <v>75</v>
+      </c>
+      <c r="N35">
+        <v>1052.26</v>
+      </c>
+      <c r="O35">
+        <v>3.5075333E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>150</v>
+      </c>
+      <c r="M36">
+        <v>150</v>
+      </c>
+      <c r="N36">
+        <v>1052.44</v>
+      </c>
+      <c r="O36">
+        <v>4.6775111000000001E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>150</v>
+      </c>
+      <c r="M37">
+        <v>125</v>
+      </c>
+      <c r="N37">
+        <v>1053.58</v>
+      </c>
+      <c r="O37">
+        <v>5.6190932999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>200</v>
+      </c>
+      <c r="M38">
+        <v>200</v>
+      </c>
+      <c r="N38">
+        <v>1055.28</v>
+      </c>
+      <c r="O38">
+        <v>2.6381999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>200</v>
+      </c>
+      <c r="M39">
+        <v>175</v>
+      </c>
+      <c r="N39">
+        <v>1055.5999999999999</v>
+      </c>
+      <c r="O39">
+        <v>3.0159999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>200</v>
+      </c>
+      <c r="M40">
+        <v>150</v>
+      </c>
+      <c r="N40">
+        <v>1056.28</v>
+      </c>
+      <c r="O40">
+        <v>3.5209333000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>150</v>
+      </c>
+      <c r="M41">
+        <v>75</v>
+      </c>
+      <c r="N41">
+        <v>1056.44</v>
+      </c>
+      <c r="O41">
+        <v>9.3905777999999995E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>200</v>
+      </c>
+      <c r="M42">
+        <v>125</v>
+      </c>
+      <c r="N42">
+        <v>1056.9000000000001</v>
+      </c>
+      <c r="O42">
+        <v>4.2276000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>100</v>
+      </c>
+      <c r="M43">
+        <v>200</v>
+      </c>
+      <c r="N43">
+        <v>1058.92</v>
+      </c>
+      <c r="O43">
+        <v>5.2946E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>200</v>
+      </c>
+      <c r="M44">
+        <v>75</v>
+      </c>
+      <c r="N44">
+        <v>1059.1400000000001</v>
+      </c>
+      <c r="O44">
+        <v>7.0609332999999996E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="M45">
+        <v>175</v>
+      </c>
+      <c r="N45">
+        <v>1059.5999999999999</v>
+      </c>
+      <c r="O45">
+        <v>6.0548571000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="M46">
+        <v>150</v>
+      </c>
+      <c r="N46">
+        <v>1060.24</v>
+      </c>
+      <c r="O46">
+        <v>7.0682667000000005E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>125</v>
+      </c>
+      <c r="N47">
+        <v>1061.32</v>
+      </c>
+      <c r="O47">
+        <v>8.4905599999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <v>50</v>
+      </c>
+      <c r="M48">
+        <v>200</v>
+      </c>
+      <c r="N48">
+        <v>1064.1400000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.10641399999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <v>50</v>
+      </c>
+      <c r="M49">
+        <v>175</v>
+      </c>
+      <c r="N49">
+        <v>1064.6600000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.121675429</v>
+      </c>
+    </row>
+    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <v>100</v>
+      </c>
+      <c r="M50">
+        <v>75</v>
+      </c>
+      <c r="N50">
+        <v>1064.96</v>
+      </c>
+      <c r="O50">
+        <v>0.14199466699999999</v>
+      </c>
+    </row>
+    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>150</v>
+      </c>
+      <c r="N51">
+        <v>1065.54</v>
+      </c>
+      <c r="O51">
+        <v>0.142072</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>125</v>
+      </c>
+      <c r="N52">
+        <v>1067.22</v>
+      </c>
+      <c r="O52">
+        <v>0.1707552</v>
+      </c>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <v>50</v>
+      </c>
+      <c r="M53">
+        <v>75</v>
+      </c>
+      <c r="N53">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="O53">
+        <v>0.28557333299999998</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J26">
-    <sortCondition ref="I2:I26"/>
-  </sortState>
+  <mergeCells count="5">
+    <mergeCell ref="L2:L6"/>
+    <mergeCell ref="L7:L11"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="L17:L21"/>
+    <mergeCell ref="L22:L26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>